--- a/doc/04_画面遷移図_バスタームーン.xlsx
+++ b/doc/04_画面遷移図_バスタームーン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\成果発表素材\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33AD34DB-7534-4D33-B9B9-865715D80081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B598ECD7-99AC-4849-ADBA-F6721FD8EB5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1140" windowWidth="18840" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -73,6 +72,34 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物知りプラス</t>
+    <rPh sb="0" eb="2">
+      <t>モノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスター・ムーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉本有玖</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシモト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉本有玖</t>
+    <rPh sb="0" eb="4">
+      <t>ヨシモトユウク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -163,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,6 +204,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,13 +735,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>203248</xdr:colOff>
+      <xdr:colOff>87794</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>72076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>166691</xdr:colOff>
+      <xdr:colOff>51237</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>111207</xdr:rowOff>
     </xdr:to>
@@ -728,7 +758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13064884" y="2762167"/>
+          <a:off x="12949430" y="2762167"/>
           <a:ext cx="1799171" cy="362404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1367,14 +1397,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>543017</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>519925</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>88160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>198797</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175705</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>67427</xdr:rowOff>
     </xdr:to>
@@ -1391,7 +1421,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15240381" y="5849342"/>
+          <a:off x="11545834" y="5849342"/>
           <a:ext cx="2103416" cy="625812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1540,23 +1570,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>49360</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>311726</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>88160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600363</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>184726</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>67427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CADDA8D-27BF-4ACD-B763-B2D8B2F7C577}"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734AD8C4-1490-405F-B22E-3B0C79E1BE9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,8 +1594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11687178" y="5849342"/>
-          <a:ext cx="2998640" cy="625812"/>
+          <a:off x="13785271" y="5849342"/>
+          <a:ext cx="2932546" cy="625812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,195 +1742,6 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>プロフィール画面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ボタンで移動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>334818</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>88160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>207819</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>67427</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734AD8C4-1490-405F-B22E-3B0C79E1BE9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17479818" y="5849342"/>
-          <a:ext cx="2932546" cy="625812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メニューバーの</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>一緒にどう？画面</a:t>
           </a:r>
           <a:r>
@@ -2333,67 +2174,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>357909</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>150090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>357909</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>39261</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A6946A-B96B-4BE3-8B5E-4BF2C1C075A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="23" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13219545" y="5587999"/>
-          <a:ext cx="0" cy="1182262"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>300182</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>150091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>300182</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>48670</xdr:rowOff>
     </xdr:to>
@@ -2413,7 +2201,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16221364" y="5588000"/>
+          <a:off x="12526817" y="5588000"/>
           <a:ext cx="0" cy="1353306"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2491,14 +2279,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161637</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161637</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95545</xdr:rowOff>
     </xdr:to>
@@ -2517,7 +2305,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18530455" y="5472545"/>
+          <a:off x="14835908" y="5472545"/>
           <a:ext cx="0" cy="1515636"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2755,172 +2543,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>460209</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>39261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>369936</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66378</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620356D1-E9B7-4EC4-8B4A-9F06C1CA0AEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12098027" y="6770261"/>
-          <a:ext cx="2357364" cy="835299"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>自分のプロフィール画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>58646</xdr:colOff>
+      <xdr:colOff>35554</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>48670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>70417</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47325</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>23252</xdr:rowOff>
     </xdr:to>
@@ -2937,7 +2566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15367919" y="6941306"/>
+          <a:off x="11673372" y="6941306"/>
           <a:ext cx="1847498" cy="944401"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3227,7 +2856,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ランキング画面</a:t>
+            <a:t>ランキング画面（ポップアップ）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3236,14 +2865,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>236895</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>213802</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>230907</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>92364</xdr:rowOff>
     </xdr:to>
@@ -3260,7 +2889,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17993804" y="6988181"/>
+          <a:off x="14299257" y="6988181"/>
           <a:ext cx="3076650" cy="805001"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3456,7 +3085,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>365125</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>40418</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -3476,9 +3105,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="14450580" y="2245600"/>
-          <a:ext cx="0" cy="1438852"/>
+        <a:xfrm flipV="1">
+          <a:off x="14450580" y="2332182"/>
+          <a:ext cx="0" cy="1352270"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3504,15 +3133,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153486</xdr:rowOff>
+      <xdr:colOff>323273</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>526064</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153486</xdr:rowOff>
+      <xdr:colOff>514519</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3523,14 +3152,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14498205" y="2197031"/>
-          <a:ext cx="725223" cy="0"/>
+          <a:off x="14408728" y="2368769"/>
+          <a:ext cx="803155" cy="1444"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3708,7 +3335,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>コメント画面</a:t>
+            <a:t>コメント画面（ポップアップ）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3769,14 +3396,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>370486</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>347394</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>23252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>370486</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>347394</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
@@ -3796,7 +3423,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16291668" y="7885707"/>
+          <a:off x="12597121" y="7885707"/>
           <a:ext cx="0" cy="1057691"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3822,14 +3449,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>191943</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168851</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>350693</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327601</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3846,7 +3473,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15501216" y="8943398"/>
+          <a:off x="11806669" y="8943398"/>
           <a:ext cx="1994477" cy="858693"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3890,23 +3517,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>480580</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>154421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>532176</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>129003</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>473365</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>159112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F7DDC2-25A9-49B8-8E1D-BCD430999C44}"/>
+        <xdr:cNvPr id="92" name="四角形: 角を丸くする 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0AA179-F45D-4C2E-B2D6-D690FE60FB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3914,8 +3541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12118398" y="8825057"/>
-          <a:ext cx="2499233" cy="944401"/>
+          <a:off x="6350000" y="3833091"/>
+          <a:ext cx="4537365" cy="632476"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4040,7 +3667,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>プロフィール編集画面</a:t>
+            <a:t>他の人のプロフィール画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4049,76 +3676,95 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>415073</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66378</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>415073</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>154421</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線コネクタ 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C90F96-8E7D-4002-9947-D6A7CD53CB2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="23" idx="2"/>
-          <a:endCxn id="61" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13276709" y="7605560"/>
-          <a:ext cx="0" cy="1219497"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>496455</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>138548</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9021</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300183</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>103911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46184</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="四角形: 角を丸くする 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0AA179-F45D-4C2E-B2D6-D690FE60FB62}"/>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB94B261-ACA0-4CD4-AEE6-2B955C8D49E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5818910" y="3440547"/>
+          <a:ext cx="5183909" cy="427182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アイコンを押せば、どの画面からでも遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>138542</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>11544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>230906</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>147764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="四角形: 角を丸くする 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A48E9C-025B-4C68-B1D6-0833443E1D9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4126,8 +3772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7850910" y="2874818"/>
-          <a:ext cx="4537365" cy="632476"/>
+          <a:off x="14223997" y="9651999"/>
+          <a:ext cx="3151909" cy="944401"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4252,7 +3898,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>他の人のプロフィール画面</a:t>
+            <a:t>リアクション一覧画面（プルダウン）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4261,245 +3907,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>496456</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>92365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>173183</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>34638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="テキスト ボックス 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB94B261-ACA0-4CD4-AEE6-2B955C8D49E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239001" y="2459183"/>
-          <a:ext cx="5183909" cy="427182"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アイコンを押せば、どの画面からでも遷移</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>161635</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>11544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>253998</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>147764</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="四角形: 角を丸くする 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A48E9C-025B-4C68-B1D6-0833443E1D9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17918544" y="9651999"/>
-          <a:ext cx="3151909" cy="944401"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>リアクション一覧画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>513772</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>490679</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>551402</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>528309</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>11544</xdr:rowOff>
     </xdr:to>
@@ -4520,7 +3935,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="19494499" y="7793182"/>
+          <a:off x="15799952" y="7793182"/>
           <a:ext cx="37630" cy="1858817"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4546,16 +3961,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>496454</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>242452</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>150090</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>357907</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4570,8 +3985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18865272" y="7816272"/>
-          <a:ext cx="2563091" cy="1651000"/>
+          <a:off x="14939816" y="8301181"/>
+          <a:ext cx="2563091" cy="750455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4849,205 +4264,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>415637</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>415637</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01F647A-587B-4304-97DD-F7FAD2D5726C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12665364" y="7666182"/>
-          <a:ext cx="0" cy="1073727"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>265546</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>265546</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C239BEA-3EB9-43F5-9957-EE650CB480E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11903364" y="7920182"/>
-          <a:ext cx="1223818" cy="461818"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>完了ボタンを押すと移動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>473364</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>92362</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="テキスト ボックス 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A747527A-4A33-45B7-A25E-AD28BA8EE708}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13335000" y="7954817"/>
-          <a:ext cx="1466273" cy="785092"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>編集ボタンを押すと移動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:colOff>357907</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>69274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>34635</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>11543</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>150091</xdr:rowOff>
     </xdr:to>
@@ -5064,7 +4288,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15690272" y="8093365"/>
+          <a:off x="11995725" y="8093365"/>
           <a:ext cx="1489363" cy="727362"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5109,14 +4333,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>184725</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>184725</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>92364</xdr:rowOff>
     </xdr:to>
@@ -5133,7 +4357,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18576636" y="7943273"/>
+          <a:off x="14882089" y="7943273"/>
           <a:ext cx="0" cy="1627909"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5292,14 +4516,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>346364</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323271</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>531089</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
@@ -5316,7 +4540,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18103273" y="8405091"/>
+          <a:off x="14408726" y="8405091"/>
           <a:ext cx="819727" cy="542637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5459,64 +4683,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>64366</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="直線コネクタ 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A54789C-8A93-4D10-B519-7B5E9F67AC41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11129817" y="7280275"/>
-          <a:ext cx="0" cy="3976543"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>587196</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>564104</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>117457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>587196</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>564104</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:to>
@@ -5533,7 +4707,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16508378" y="9757912"/>
+          <a:off x="12813831" y="9757912"/>
           <a:ext cx="0" cy="1545088"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5559,16 +4733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>11545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>542634</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>542634</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5583,8 +4757,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19488727" y="10621818"/>
-          <a:ext cx="0" cy="669636"/>
+          <a:off x="17687634" y="7331364"/>
+          <a:ext cx="0" cy="3856181"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5615,8 +4789,8 @@
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>369455</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:to>
@@ -5634,7 +4808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7446818" y="11210636"/>
-          <a:ext cx="11984182" cy="0"/>
+          <a:ext cx="10679546" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5659,16 +4833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>277090</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>311726</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>46181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5683,7 +4857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13750635" y="11545454"/>
+          <a:off x="13138726" y="11337636"/>
           <a:ext cx="4929909" cy="611909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5734,7 +4908,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>93984</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>11545</xdr:rowOff>
+      <xdr:rowOff>80818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -5754,9 +4928,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7448439" y="4479636"/>
-          <a:ext cx="0" cy="6728997"/>
+        <a:xfrm>
+          <a:off x="7448439" y="4548909"/>
+          <a:ext cx="0" cy="6659724"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5782,15 +4956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>150090</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>473363</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23089</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5805,8 +4979,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7504545" y="4514273"/>
-          <a:ext cx="7666182" cy="0"/>
+          <a:off x="7493000" y="4652816"/>
+          <a:ext cx="7677727" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5964,23 +5138,1116 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85149</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>50521</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>392546</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>50521</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450274</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450274</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="四角形: 角を丸くする 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAC1EC8-C54B-4D85-9547-84799D171EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9640456" y="7435273"/>
+          <a:ext cx="1223818" cy="346363"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニューバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>35555</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>35554</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>106395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="四角形: 角を丸くする 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AA647F-CB9A-44E4-9185-016AB4D84F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12897191" y="7622487"/>
+          <a:ext cx="1223818" cy="346363"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニューバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>53525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="四角形: 角を丸くする 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2663A2-B473-470D-BC88-E11DDF308E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16059726" y="7592707"/>
+          <a:ext cx="1223818" cy="346363"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニューバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>404090</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>404090</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="四角形: 角を丸くする 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C4D290-0236-4A2B-843C-AD7FA939E435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12653817" y="9640455"/>
+          <a:ext cx="1223818" cy="346363"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニューバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>576121</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>122797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>515215</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A16A14-1F57-4C2E-8549-6EC32ADA0BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18333030" y="5722342"/>
+          <a:ext cx="2998640" cy="625812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニューバーの</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロフィール画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンで移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>272761</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>272761</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73897</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線コネクタ 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BFEB71-AD8A-4D48-B3CF-8F37576D54A3}"/>
+        <xdr:cNvPr id="77" name="直線コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437EBAB7-5E6C-4999-ACE7-E16CA597E615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="78" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19865397" y="5460999"/>
+          <a:ext cx="0" cy="1182262"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>375061</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>284788</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="四角形: 角を丸くする 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6557CA73-560C-47C0-A849-6234DCFE06A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18743879" y="6643261"/>
+          <a:ext cx="2357364" cy="835299"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自分のプロフィール画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>314613</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>366209</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>140549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="四角形: 角を丸くする 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2CEB75-97AC-4FA8-9C69-51A98CABA1D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18683431" y="8674966"/>
+          <a:ext cx="2499233" cy="944401"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロフィール編集画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>329925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>329925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AC4630-7111-4F32-84E2-3241906F8411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="78" idx="2"/>
+          <a:endCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19922561" y="7478560"/>
+          <a:ext cx="0" cy="1196406"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>330489</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>330489</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B14D895-D704-4D42-A4A1-85A578A6C770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19311216" y="7539182"/>
+          <a:ext cx="0" cy="1073727"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>249670</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>249670</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>46181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1844FA8C-E036-4858-B142-57D1C6FA8339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18618488" y="7643091"/>
+          <a:ext cx="1223818" cy="750454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>完了ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャンセルボタンを押すと移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>388216</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>18761</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5FE4DE-5920-4159-9BFD-537A997BE3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19980852" y="7827817"/>
+          <a:ext cx="1466273" cy="785092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>編集ボタンを押すと移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>73612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>388217</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>73612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AF6A87-7D22-4015-B04D-6E4DB3F20C2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5990,8 +6257,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11111058" y="7266430"/>
-          <a:ext cx="919306" cy="0"/>
+          <a:off x="18103273" y="7289521"/>
+          <a:ext cx="653762" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6012,6 +6279,1473 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>565728</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>565727</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>108247</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="四角形: 角を丸くする 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D20F1D-A6DD-4CEB-8C52-49801340D104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20158364" y="7301066"/>
+          <a:ext cx="1223818" cy="346363"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニューバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>340412</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>140549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>340412</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9462E89-4F6B-4303-9BDF-AD2107E4903F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19933048" y="9619367"/>
+          <a:ext cx="0" cy="1418088"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119794</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14791A8-B215-4AD1-8F90-628DF201A9C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17387455" y="7335703"/>
+          <a:ext cx="311727" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>387652</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>77923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>387652</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線コネクタ 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A67FC5-3CBC-4266-AB3A-C84CC2FE2653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18144561" y="7293832"/>
+          <a:ext cx="0" cy="3893713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>334819</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>73612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>357909</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>73612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線コネクタ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F3DB23-691A-44CF-90F1-7E5664F1E40B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19927455" y="11007157"/>
+          <a:ext cx="6754090" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>288637</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>288637</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357220B1-D9FF-4350-AC89-907C0E92B722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26612273" y="2262909"/>
+          <a:ext cx="0" cy="8716818"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>265546</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D799A86-AD9C-44DA-BFDD-716EE71BD514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17895455" y="2300941"/>
+          <a:ext cx="8693727" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="テキスト ボックス 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA1C802-C04F-4E00-B424-717FB7B7FDC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20458546" y="10437090"/>
+          <a:ext cx="3902363" cy="785092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウトボタンを押すと移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>566024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="四角形: 角を丸くする 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834A66B6-8BC4-48D0-8BD5-D37B27FE9B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10864273" y="1627910"/>
+          <a:ext cx="2563387" cy="742794"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規会員登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>35256</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>153984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>35256</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61514</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A825EAFF-A384-4977-AE78-883F026BC59E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12284983" y="2359166"/>
+          <a:ext cx="0" cy="877348"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414977</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>336717</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="ひし形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1F7E45-F1A1-4B5F-BF6C-173DDD00A5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12052795" y="3178787"/>
+          <a:ext cx="533649" cy="471522"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32295</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32295</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F76383-7C11-438B-A718-61A69D0B248A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12282022" y="3650308"/>
+          <a:ext cx="0" cy="794692"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108247</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7027FEB8-0D4D-46E7-951A-766B77EB6AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12226636" y="4414702"/>
+          <a:ext cx="2955638" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427182</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>496455</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3187BE-2400-4099-AAFF-19B2D9B17DA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11453091" y="4553243"/>
+          <a:ext cx="3740728" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>471022</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>471022</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8408DFF-3A69-4A69-ADD7-1BD5FBDF81FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496931" y="4110182"/>
+          <a:ext cx="0" cy="427182"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220281</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220281</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="四角形: 角を丸くする 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE093D6F-112F-433E-BE33-BB6D31EA12BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410463" y="4216577"/>
+          <a:ext cx="1223818" cy="346363"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニューバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>477694</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438727</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131339</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D829CF7-DC55-4BF2-948F-D21BE20D6650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10891694" y="4114521"/>
+          <a:ext cx="572942" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>191944</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>191944</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D93AE75-1D4C-4A5F-9428-6E7EDD8524EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10605944" y="2043546"/>
+          <a:ext cx="0" cy="1352270"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212149</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414977</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線コネクタ 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30FE4B4-076B-4A7B-AC14-8C7712454DC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10626149" y="3414548"/>
+          <a:ext cx="1426646" cy="7246"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>115455</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>461818</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5176EAD5-481D-4796-A00B-AC463AD69E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10529455" y="2070032"/>
+          <a:ext cx="346363" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>198919</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>162362</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B07FF2B-048D-4279-99B7-1FB8BD81EBD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8692044" y="2516826"/>
+          <a:ext cx="1773193" cy="356631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>異常発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6687,8 +8421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD74" sqref="AD74"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6703,33 +8437,45 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5">
+        <v>45083</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">

--- a/doc/04_画面遷移図_バスタームーン.xlsx
+++ b/doc/04_画面遷移図_バスタームーン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B598ECD7-99AC-4849-ADBA-F6721FD8EB5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72511E73-322E-48D5-87FA-51A36BD140D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3677,13 +3677,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>300183</xdr:colOff>
+      <xdr:colOff>30308</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>103911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>588819</xdr:colOff>
+      <xdr:colOff>318944</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>46184</xdr:rowOff>
     </xdr:to>
@@ -3700,8 +3700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5818910" y="3440547"/>
-          <a:ext cx="5183909" cy="427182"/>
+          <a:off x="5507183" y="3390036"/>
+          <a:ext cx="5114636" cy="418523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4055,215 +4055,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>138546</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>138546</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線コネクタ 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FA60BB-7B6C-4433-B441-766FAFDBD412}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9940637" y="7666182"/>
-          <a:ext cx="0" cy="427182"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>80818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>80818</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="直線コネクタ 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDE10E1-FD9A-4DC4-9F89-7D499D28FD4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8612909" y="8104909"/>
-          <a:ext cx="1397000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>46185</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>46185</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="直線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA66C19B-1F86-439B-99FB-62B0ADD2E1B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8624458" y="4791364"/>
-          <a:ext cx="0" cy="3278909"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>27801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>438727</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>58431</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="直線矢印コネクタ 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22451ADF-6A52-4985-B1CF-CDE4A25FEB5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8612909" y="4819165"/>
-          <a:ext cx="6523182" cy="30630"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>357907</xdr:colOff>
       <xdr:row>49</xdr:row>
@@ -4683,331 +4474,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>564104</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>117457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>564104</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="154" name="直線コネクタ 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B10669-C420-4692-A82E-32352A5D3AB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12813831" y="9757912"/>
-          <a:ext cx="0" cy="1545088"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>542634</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>542634</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="直線コネクタ 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC66AA40-32DF-44E5-BB05-78AD281181A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17687634" y="7331364"/>
-          <a:ext cx="0" cy="3856181"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>92363</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>369455</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="直線コネクタ 157">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013C86D1-DD1A-41C4-B1CD-428B52856F6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7446818" y="11210636"/>
-          <a:ext cx="10679546" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>277090</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>80818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>311726</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>46181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="テキスト ボックス 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8566EC8-886A-4A0F-A8B9-8293AE1AE50E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13138726" y="11337636"/>
-          <a:ext cx="4929909" cy="611909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メニューバーのタイムラインボタンを押すと移動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>93984</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>93984</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>113451</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="166" name="直線コネクタ 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A334FF-468E-4986-87DD-654AED99A866}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7448439" y="4548909"/>
-          <a:ext cx="0" cy="6659724"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>473363</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23089</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="171" name="直線矢印コネクタ 170">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A4FEB0-5A91-4406-A7C1-509793E1EBEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7493000" y="4652816"/>
-          <a:ext cx="7677727" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>577273</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -6231,58 +5697,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>73612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>388217</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>73612</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線コネクタ 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AF6A87-7D22-4015-B04D-6E4DB3F20C2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18103273" y="7289521"/>
-          <a:ext cx="653762" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>565728</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -6380,110 +5794,6 @@
         <a:xfrm>
           <a:off x="19933048" y="9619367"/>
           <a:ext cx="0" cy="1418088"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>242455</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>119794</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>119794</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直線コネクタ 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14791A8-B215-4AD1-8F90-628DF201A9C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="17387455" y="7335703"/>
-          <a:ext cx="311727" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>387652</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>77923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>387652</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="直線コネクタ 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A67FC5-3CBC-4266-AB3A-C84CC2FE2653}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18144561" y="7293832"/>
-          <a:ext cx="0" cy="3893713"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7205,120 +6515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>427182</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>496455</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85152</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線コネクタ 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3187BE-2400-4099-AAFF-19B2D9B17DA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11453091" y="4553243"/>
-          <a:ext cx="3740728" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>471022</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13906</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>55884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>471022</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線コネクタ 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8408DFF-3A69-4A69-ADD7-1BD5FBDF81FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11496931" y="4110182"/>
-          <a:ext cx="0" cy="427182"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>220281</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71759</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>220281</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>94849</xdr:rowOff>
+      <xdr:colOff>13906</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7333,8 +6539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9410463" y="4216577"/>
-          <a:ext cx="1223818" cy="346363"/>
+          <a:off x="9713531" y="4294509"/>
+          <a:ext cx="1206500" cy="340590"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7373,58 +6579,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>477694</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>131339</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438727</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>131339</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線コネクタ 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D829CF7-DC55-4BF2-948F-D21BE20D6650}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10891694" y="4114521"/>
-          <a:ext cx="572942" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7585,6 +6739,77 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9896AAE-BE22-4C6D-892C-53BD3D7207C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19224625" y="1238250"/>
+          <a:ext cx="5397500" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>      を押すと対応した画面に移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>198919</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -7742,6 +6967,74 @@
               </a:solidFill>
             </a:rPr>
             <a:t>異常発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="四角形: 角を丸くする 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EF2C03-FBB3-4DF3-8375-8DC6E257109E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19415125" y="1365250"/>
+          <a:ext cx="1206500" cy="340590"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニューバー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8422,7 +7715,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_画面遷移図_バスタームーン.xlsx
+++ b/doc/04_画面遷移図_バスタームーン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72511E73-322E-48D5-87FA-51A36BD140D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F6F8B1-9DDF-44C0-A901-29A8E5DF5245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,16 +734,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>87794</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>72076</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>564044</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>51237</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111207</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>527487</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>79457</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -758,8 +758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12949430" y="2762167"/>
-          <a:ext cx="1799171" cy="362404"/>
+          <a:off x="13883169" y="2850201"/>
+          <a:ext cx="1773193" cy="356631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3962,15 +3962,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>242452</xdr:colOff>
+      <xdr:colOff>194827</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>357907</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:colOff>310282</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3985,8 +3985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14939816" y="8301181"/>
-          <a:ext cx="2563091" cy="750455"/>
+          <a:off x="14720452" y="8100579"/>
+          <a:ext cx="2528455" cy="736023"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4308,15 +4308,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>323271</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:colOff>307396</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>41852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>531089</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:colOff>515214</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>99580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4331,8 +4331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14408726" y="8405091"/>
-          <a:ext cx="819727" cy="542637"/>
+          <a:off x="14229771" y="8725477"/>
+          <a:ext cx="811068" cy="533978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7035,6 +7035,415 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>メニューバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>566024</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1637FAB4-7AAD-4FEC-A6FB-B82B990BDAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="82" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13281899" y="1973330"/>
+          <a:ext cx="1783476" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>192850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>271110</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129F1DA8-8F6F-4FD8-8DD1-DB8DCD0117D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12908725" y="1441081"/>
+          <a:ext cx="3094510" cy="392415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規会員登録ボタンで移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>395760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DB6A5B-F3AC-4A97-8599-AA9DA9FDA5ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10620375" y="2454853"/>
+          <a:ext cx="3094510" cy="692497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>とパスワードを入力して</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規登録ボタンで移動</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7715,7 +8124,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
